--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/142.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/142.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2853670437290498</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.96569317984023</v>
+        <v>-1.939505757281692</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03547282435273261</v>
+        <v>0.04200361946336723</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2951185646312695</v>
+        <v>-0.2925591003279066</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2627745248724407</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.077387588818791</v>
+        <v>-2.044027680013663</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01228142047673884</v>
+        <v>0.02297481269455415</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.295414954393724</v>
+        <v>-0.2940848505829062</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2480066222150703</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.208851778972301</v>
+        <v>-2.168152938438221</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04409878847382121</v>
+        <v>0.05019448925336503</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3134421681721737</v>
+        <v>-0.3062791722381756</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2358711217712434</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.365761687254168</v>
+        <v>-2.310250658837819</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06427227294590671</v>
+        <v>0.06936054054272352</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.339966861839712</v>
+        <v>-0.3358933276660768</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2154741973553974</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.577690587745748</v>
+        <v>-2.507627260007312</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1048878907388049</v>
+        <v>0.1025094723987146</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3228638585028075</v>
+        <v>-0.3166951553187183</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1829860830774708</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.514896839451946</v>
+        <v>-2.438869945286194</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2324157912392252</v>
+        <v>0.2283174362480445</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3840836749546093</v>
+        <v>-0.3796524289987014</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1394214940097752</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.38587311968239</v>
+        <v>-2.30238756984423</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3254807166018366</v>
+        <v>0.3211633543970195</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.4082489309072391</v>
+        <v>-0.4004902353521503</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.08588418694600604</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.111506722631191</v>
+        <v>-2.024759425357941</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4463157566535314</v>
+        <v>0.4379730418620791</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3632546288897058</v>
+        <v>-0.3479095234542554</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.02027658665267912</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.757453090850331</v>
+        <v>-1.670318880832991</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5329447900314173</v>
+        <v>0.5153993921229674</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2801764324689099</v>
+        <v>-0.2640370608720051</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.06071009271775094</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.193896428480937</v>
+        <v>-1.111472333604868</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5150153994750584</v>
+        <v>0.4961136168901544</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2305333373299232</v>
+        <v>-0.2137194235150187</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.1609426745809266</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.6221328357925453</v>
+        <v>-0.54074245496484</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4187865498994479</v>
+        <v>0.3994248521659076</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1299827454052229</v>
+        <v>-0.1142083858310454</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.2810766967966078</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.06616550339969464</v>
+        <v>0.02439981963128104</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2815872908448483</v>
+        <v>0.261603612624581</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.005688851426165422</v>
+        <v>0.01148423421910269</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.4205966752241059</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5304889891425087</v>
+        <v>0.6211462952032117</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.007510991443619478</v>
+        <v>-0.02101205614025222</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1350729249702513</v>
+        <v>0.1532111024036101</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.5689650374475455</v>
       </c>
       <c r="E15" t="n">
-        <v>1.073510075113272</v>
+        <v>1.158416251743886</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2307596447840141</v>
+        <v>-0.2415201992140112</v>
       </c>
       <c r="G15" t="n">
-        <v>0.286821563250756</v>
+        <v>0.3064475296887508</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.7167821163362641</v>
       </c>
       <c r="E16" t="n">
-        <v>1.628468514275305</v>
+        <v>1.707816287823829</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6229300220501816</v>
+        <v>-0.6244791330746357</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4499541964960759</v>
+        <v>0.4624857892603452</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.8589723480382633</v>
       </c>
       <c r="E17" t="n">
-        <v>2.236563943657869</v>
+        <v>2.310227749988485</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8341259784001248</v>
+        <v>-0.8427767633387588</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5894252903801294</v>
+        <v>0.5973956929083999</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.000137592921702</v>
       </c>
       <c r="E18" t="n">
-        <v>2.710943788730741</v>
+        <v>2.788832974236448</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.150109586234585</v>
+        <v>-1.147123787888677</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7470462420822688</v>
+        <v>0.7593544474886291</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.140877055778539</v>
       </c>
       <c r="E19" t="n">
-        <v>3.142552985028535</v>
+        <v>3.222903811615513</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.444500542852597</v>
+        <v>-1.435788435894145</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9296004350328562</v>
+        <v>0.9413479819723075</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.274925084124756</v>
       </c>
       <c r="E20" t="n">
-        <v>3.458192021513541</v>
+        <v>3.535838839036156</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.715882601605979</v>
+        <v>-1.710858576125162</v>
       </c>
       <c r="G20" t="n">
-        <v>1.111123834031262</v>
+        <v>1.121790945383441</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.393134727321642</v>
       </c>
       <c r="E21" t="n">
-        <v>3.825664225273897</v>
+        <v>3.902915369763876</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.982890356278998</v>
+        <v>-1.977269901153045</v>
       </c>
       <c r="G21" t="n">
-        <v>1.240024179737137</v>
+        <v>1.253820174148133</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.490159853932976</v>
       </c>
       <c r="E22" t="n">
-        <v>4.177127001717439</v>
+        <v>4.256359431466781</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.266952202677877</v>
+        <v>-2.25326060170538</v>
       </c>
       <c r="G22" t="n">
-        <v>1.393251846733732</v>
+        <v>1.408740036882091</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.566418715398387</v>
       </c>
       <c r="E23" t="n">
-        <v>4.285931245500046</v>
+        <v>4.372212787432296</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.566367914800751</v>
+        <v>-2.547225224280846</v>
       </c>
       <c r="G23" t="n">
-        <v>1.534664804578694</v>
+        <v>1.545114368765327</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.621840399892041</v>
       </c>
       <c r="E24" t="n">
-        <v>4.484786875385629</v>
+        <v>4.568030057240698</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.891711160921981</v>
+        <v>-2.863154080311898</v>
       </c>
       <c r="G24" t="n">
-        <v>1.615938381559126</v>
+        <v>1.624358478899397</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.659196688160133</v>
       </c>
       <c r="E25" t="n">
-        <v>4.507819134019713</v>
+        <v>4.5917660590546</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.12149717958942</v>
+        <v>-3.087445938013247</v>
       </c>
       <c r="G25" t="n">
-        <v>1.702497332628649</v>
+        <v>1.713398051675373</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.677284979418669</v>
       </c>
       <c r="E26" t="n">
-        <v>4.555412321639064</v>
+        <v>4.645976184621949</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.267928322722835</v>
+        <v>-3.226845489540846</v>
       </c>
       <c r="G26" t="n">
-        <v>1.824747159280434</v>
+        <v>1.833174556861159</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.678393622246024</v>
       </c>
       <c r="E27" t="n">
-        <v>4.552752114017428</v>
+        <v>4.638068564161587</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.410020932954115</v>
+        <v>-3.362105074706673</v>
       </c>
       <c r="G27" t="n">
-        <v>1.868369016092513</v>
+        <v>1.882607405075055</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.66335588164492</v>
       </c>
       <c r="E28" t="n">
-        <v>4.506591233575259</v>
+        <v>4.588559793446964</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.488388284209594</v>
+        <v>-3.431554452222882</v>
       </c>
       <c r="G28" t="n">
-        <v>1.854881091828699</v>
+        <v>1.864403525477605</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.636055862285052</v>
       </c>
       <c r="E29" t="n">
-        <v>4.41074929674374</v>
+        <v>4.491935270838717</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.540717137811807</v>
+        <v>-3.489254092727503</v>
       </c>
       <c r="G29" t="n">
-        <v>1.893532944939325</v>
+        <v>1.904005869895413</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.598253617665078</v>
       </c>
       <c r="E30" t="n">
-        <v>4.368607928695842</v>
+        <v>4.440129844477095</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.652734947442504</v>
+        <v>-3.599083290269928</v>
       </c>
       <c r="G30" t="n">
-        <v>1.917410571418045</v>
+        <v>1.929203379848315</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.550859743481048</v>
       </c>
       <c r="E31" t="n">
-        <v>4.193018165138889</v>
+        <v>4.250044723473601</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.596321609305974</v>
+        <v>-3.546520098949124</v>
       </c>
       <c r="G31" t="n">
-        <v>1.906966847423776</v>
+        <v>1.913970698115865</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.494726226703302</v>
       </c>
       <c r="E32" t="n">
-        <v>4.085963058969191</v>
+        <v>4.133398561394723</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.518912779622176</v>
+        <v>-3.472457699489689</v>
       </c>
       <c r="G32" t="n">
-        <v>1.814503461874619</v>
+        <v>1.825354539286252</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.430500422055055</v>
       </c>
       <c r="E33" t="n">
-        <v>3.872407664904339</v>
+        <v>3.907498460721238</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.52646195827622</v>
+        <v>-3.477448143864415</v>
       </c>
       <c r="G33" t="n">
-        <v>1.778727903503083</v>
+        <v>1.786425277038353</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.360616532142902</v>
       </c>
       <c r="E34" t="n">
-        <v>3.711688491153291</v>
+        <v>3.74068942638301</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.48641356916664</v>
+        <v>-3.439727801435789</v>
       </c>
       <c r="G34" t="n">
-        <v>1.680893001027473</v>
+        <v>1.688878004036652</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.286403150216651</v>
       </c>
       <c r="E35" t="n">
-        <v>3.61812568939168</v>
+        <v>3.642504112365582</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.394796281486165</v>
+        <v>-3.351049590562313</v>
       </c>
       <c r="G35" t="n">
-        <v>1.618356221197671</v>
+        <v>1.623307244273943</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.211523568001317</v>
       </c>
       <c r="E36" t="n">
-        <v>3.415866687406189</v>
+        <v>3.43842735050691</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.302219742209962</v>
+        <v>-3.274489778843379</v>
       </c>
       <c r="G36" t="n">
-        <v>1.52113015877597</v>
+        <v>1.527952963504786</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.135877143586003</v>
       </c>
       <c r="E37" t="n">
-        <v>3.247791791373143</v>
+        <v>3.264139949847047</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.222163115313302</v>
+        <v>-3.196027524461991</v>
       </c>
       <c r="G37" t="n">
-        <v>1.398667165102912</v>
+        <v>1.403425461831183</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.062462209502328</v>
       </c>
       <c r="E38" t="n">
-        <v>3.121973607187177</v>
+        <v>3.143700582827989</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.099783344381426</v>
+        <v>-3.077885543113977</v>
       </c>
       <c r="G38" t="n">
-        <v>1.336710024365201</v>
+        <v>1.345176843244381</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.9899821014519093</v>
       </c>
       <c r="E39" t="n">
-        <v>2.808384478221806</v>
+        <v>2.819762632994258</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.965744359419598</v>
+        <v>-2.946457124138694</v>
       </c>
       <c r="G39" t="n">
-        <v>1.206346710472236</v>
+        <v>1.214817909495689</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.9184614171416158</v>
       </c>
       <c r="E40" t="n">
-        <v>2.55786650668751</v>
+        <v>2.567333458508962</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.858320591106945</v>
+        <v>-2.842838241150949</v>
       </c>
       <c r="G40" t="n">
-        <v>1.182947979767334</v>
+        <v>1.190208798923422</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.8444016076110398</v>
       </c>
       <c r="E41" t="n">
-        <v>2.37887483107874</v>
+        <v>2.393027077223918</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.770109595622559</v>
+        <v>-2.758606606738335</v>
       </c>
       <c r="G41" t="n">
-        <v>1.06025137839973</v>
+        <v>1.069538744306</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.7659239474093674</v>
       </c>
       <c r="E42" t="n">
-        <v>2.147460128765893</v>
+        <v>2.166509376207979</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.662942065749861</v>
+        <v>-2.662003254827407</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9688406875241183</v>
+        <v>0.9760139037947528</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.6831346181094359</v>
       </c>
       <c r="E43" t="n">
-        <v>2.032558724155651</v>
+        <v>2.049980017976373</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.589440324757335</v>
+        <v>-2.586750186149836</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8624805642456924</v>
+        <v>0.8707604969692356</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.5972460749270851</v>
       </c>
       <c r="E44" t="n">
-        <v>1.823929532349525</v>
+        <v>1.844543951345065</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.581020227417065</v>
+        <v>-2.574606966177748</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7872968478524398</v>
+        <v>0.7959593131758012</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.5114796525411376</v>
       </c>
       <c r="E45" t="n">
-        <v>1.581917800992863</v>
+        <v>1.608182606100219</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.470493126887185</v>
+        <v>-2.467707355129732</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6827194432930134</v>
+        <v>0.6937340460908286</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.4273780446223833</v>
       </c>
       <c r="E46" t="n">
-        <v>1.383980541356461</v>
+        <v>1.414835737661635</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.429173765914469</v>
+        <v>-2.422925490109425</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6593411532613833</v>
+        <v>0.6706273250041075</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.348535809859957</v>
       </c>
       <c r="E47" t="n">
-        <v>1.1040674216079</v>
+        <v>1.135677462776074</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.364324269908669</v>
+        <v>-2.361301240336442</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5513808172753214</v>
+        <v>0.5606988441915006</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2758583334464664</v>
       </c>
       <c r="E48" t="n">
-        <v>0.944427223396034</v>
+        <v>0.9796946850319336</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.311407016925819</v>
+        <v>-2.310545588552183</v>
       </c>
       <c r="G48" t="n">
-        <v>0.464121043122163</v>
+        <v>0.4740639706212512</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.210863311489318</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7194761539816399</v>
+        <v>0.7577936560794477</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.251776462820971</v>
+        <v>-2.249552079554472</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3915712534849097</v>
+        <v>0.3994774138971803</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1527197326109682</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5899363072119473</v>
+        <v>0.6355642701009351</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.200819324400167</v>
+        <v>-2.200533154974349</v>
       </c>
       <c r="G50" t="n">
-        <v>0.3159933241071118</v>
+        <v>0.3253639127545639</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.100474916103823</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4142078390863582</v>
+        <v>0.4735471135970695</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.159429881119087</v>
+        <v>-2.151843471238725</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2612707216598538</v>
+        <v>0.2669941101762159</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.05199974027410519</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2904278820353005</v>
+        <v>0.3565359394954646</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.081638518835472</v>
+        <v>-2.075771315582155</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2239883936585002</v>
+        <v>0.2356249769430425</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.005919022513219226</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1554274554056095</v>
+        <v>0.2236044010105912</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.02915855025585</v>
+        <v>-2.02576174837235</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1297262288613437</v>
+        <v>0.1374236023966143</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.03915204376986907</v>
       </c>
       <c r="E54" t="n">
-        <v>0.111347143492985</v>
+        <v>0.1853482209326015</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.979710371536999</v>
+        <v>-1.976939200260454</v>
       </c>
       <c r="G54" t="n">
-        <v>0.06234646951399813</v>
+        <v>0.07755287038081222</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.08346521124242799</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.08408905376368983</v>
+        <v>-0.0006064240217122409</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.966631260738639</v>
+        <v>-1.965578566065094</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01779164197182827</v>
+        <v>0.0352173159368236</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1274114089116341</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.2045634619369302</v>
+        <v>-0.1193243943415895</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.851616702401352</v>
+        <v>-1.856601306583714</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.01126769518152756</v>
+        <v>0.007587365864467377</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.171015787973608</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.3618851037804334</v>
+        <v>-0.2742033757290024</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.774867084430599</v>
+        <v>-1.777114098442508</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.06104803484105965</v>
+        <v>-0.04467651559770041</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.2138653605317798</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.4067567617583305</v>
+        <v>-0.3132012602371738</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.764180992453239</v>
+        <v>-1.763994106297602</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.143047255722674</v>
+        <v>-0.1272845765332237</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.2553611404890531</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.6478355223849021</v>
+        <v>-0.5446772845698389</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.717901848115706</v>
+        <v>-1.720405830591614</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1651699043961226</v>
+        <v>-0.1474230198511274</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.2949943325509352</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.6723205288694409</v>
+        <v>-0.5650770764960152</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.642528325470635</v>
+        <v>-1.64957451755736</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.2036173507740214</v>
+        <v>-0.1898169762187523</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.3318679519084956</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.8277309677619447</v>
+        <v>-0.7041583375397961</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.650472447133269</v>
+        <v>-1.656587128537995</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2515244487329176</v>
+        <v>-0.2341586367396495</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.3656242849226118</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.000295511674535</v>
+        <v>-0.8705483380759332</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.587891865860741</v>
+        <v>-1.59528116924883</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.3056630319438122</v>
+        <v>-0.2895119799621801</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.3956442878129758</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.081811456638058</v>
+        <v>-0.9448793863840951</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.623314092594277</v>
+        <v>-1.629881388907184</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3639758926466147</v>
+        <v>-0.3486716685577097</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.4216393808628289</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.290487369983093</v>
+        <v>-1.144594984595223</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.589601582175195</v>
+        <v>-1.596114856708738</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.4116873441613291</v>
+        <v>-0.3903735621302439</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.4432872020009063</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.467512360813409</v>
+        <v>-1.313976623669632</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.530853627141301</v>
+        <v>-1.543366239280389</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.4670757285380415</v>
+        <v>-0.4478220743632285</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.4602441139372676</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.59798079816892</v>
+        <v>-1.43899324145369</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.56154091791602</v>
+        <v>-1.576047955747289</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.4713142481459495</v>
+        <v>-0.4472964570505014</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.4720023112872426</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.741506445601427</v>
+        <v>-1.578043841487561</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.524622141889303</v>
+        <v>-1.541646302629298</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.5233927035005719</v>
+        <v>-0.4975410920029424</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.4784126312333934</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.89500422149484</v>
+        <v>-1.726307344975067</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.546004546180661</v>
+        <v>-1.57387978433229</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.5350847686125687</v>
+        <v>-0.5086097165801213</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.4796032669800511</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.99796389276954</v>
+        <v>-1.825395698736722</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.558209088172567</v>
+        <v>-1.589300812268468</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.5435530475398391</v>
+        <v>-0.514531671636847</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.4757786568144068</v>
       </c>
       <c r="E70" t="n">
-        <v>-2.12920323551705</v>
+        <v>-1.949887429232098</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.562240280951566</v>
+        <v>-1.597710689272102</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.6270225368489986</v>
+        <v>-0.5951336264954616</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.4675794441959271</v>
       </c>
       <c r="E71" t="n">
-        <v>-2.207365450015756</v>
+        <v>-2.025700426352532</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.571603569358563</v>
+        <v>-1.610662775886553</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.6747821699507131</v>
+        <v>-0.6361887187637234</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.4554658705778294</v>
       </c>
       <c r="E72" t="n">
-        <v>-2.291312375050643</v>
+        <v>-2.110878171928054</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.572590561868017</v>
+        <v>-1.609239228997917</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.6740930272518041</v>
+        <v>-0.6443051261010848</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.4399756011987384</v>
       </c>
       <c r="E73" t="n">
-        <v>-2.275844625575556</v>
+        <v>-2.096582841069968</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.566808771428019</v>
+        <v>-1.599884700879465</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7286740050342441</v>
+        <v>-0.6938416377294352</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.4211056696217662</v>
       </c>
       <c r="E74" t="n">
-        <v>-2.317439935637454</v>
+        <v>-2.140204697882047</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.551317661183478</v>
+        <v>-1.588762054522922</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7247304151406996</v>
+        <v>-0.6924867131010719</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.3986774285729712</v>
       </c>
       <c r="E75" t="n">
-        <v>-2.214262717197209</v>
+        <v>-2.038592650995256</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.500668592909855</v>
+        <v>-1.542734038457025</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7456032626483303</v>
+        <v>-0.7134865847926117</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.3724062316061658</v>
       </c>
       <c r="E76" t="n">
-        <v>-2.186767091549216</v>
+        <v>-2.018175338491988</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.380871647050796</v>
+        <v>-1.428939350299692</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.747831296035057</v>
+        <v>-0.7156883373137021</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.3421246649488556</v>
       </c>
       <c r="E77" t="n">
-        <v>-2.031823868045803</v>
+        <v>-1.869124139059438</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.39472750343352</v>
+        <v>-1.442476916198598</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.7087078473910675</v>
+        <v>-0.6761546151561673</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.3083851593014125</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.877141263126618</v>
+        <v>-1.72192574065425</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.356157413015985</v>
+        <v>-1.406403508016516</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.7191953728280648</v>
+        <v>-0.6851616518289829</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.2717392995661905</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.700046920011983</v>
+        <v>-1.556030696420931</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.295711422052364</v>
+        <v>-1.352527733461986</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6886847478723457</v>
+        <v>-0.6581157209929902</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.2328713582178125</v>
       </c>
       <c r="E80" t="n">
-        <v>-1.502335967829673</v>
+        <v>-1.361528929942438</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.285362601184004</v>
+        <v>-1.340457515894443</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.6190492142245462</v>
+        <v>-0.5902439254390085</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1923475488563707</v>
       </c>
       <c r="E81" t="n">
-        <v>-1.336072991477445</v>
+        <v>-1.203772193767844</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.17431426348567</v>
+        <v>-1.227616239140474</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5616999852617434</v>
+        <v>-0.5334188537408419</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1500327329727068</v>
       </c>
       <c r="E82" t="n">
-        <v>-1.116716826347413</v>
+        <v>-0.9878456816033563</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.14806113876304</v>
+        <v>-1.197121674713755</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.5206463530415726</v>
+        <v>-0.4945874147150341</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1059447295209804</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.8409341826480321</v>
+        <v>-0.7200830820673372</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.060410071721519</v>
+        <v>-1.111415391729323</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4910628586235806</v>
+        <v>-0.4655032567441328</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.06023601877413183</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.5200477333243</v>
+        <v>-0.4131824334064196</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.9916812279381734</v>
+        <v>-1.048031784006795</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.4340202397598686</v>
+        <v>-0.410936879442602</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.01325592520546515</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.2824876885968184</v>
+        <v>-0.1879013931234801</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.9351350254253704</v>
+        <v>-0.9872470618860837</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3882521122541536</v>
+        <v>-0.3738282971640666</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.03337124706713019</v>
       </c>
       <c r="E86" t="n">
-        <v>-0.006423255615892497</v>
+        <v>0.0767746647483579</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.8776952734809312</v>
+        <v>-0.9338093017588253</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.3004477401630863</v>
+        <v>-0.2832746545178181</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.07815281202811816</v>
       </c>
       <c r="E87" t="n">
-        <v>0.2502006370345841</v>
+        <v>0.325330331648473</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.7769957566509583</v>
+        <v>-0.8293209601329442</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2337585835627405</v>
+        <v>-0.2192223447696535</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.1192323139990213</v>
       </c>
       <c r="E88" t="n">
-        <v>0.4575566669054374</v>
+        <v>0.5299750522145089</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.653481528352446</v>
+        <v>-0.695171741540253</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.2019032543152945</v>
+        <v>-0.1884051097148436</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1554728882001958</v>
       </c>
       <c r="E89" t="n">
-        <v>0.7433523204122698</v>
+        <v>0.808051431464707</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.5001969194803053</v>
+        <v>-0.5390706999007495</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1247513930954971</v>
+        <v>-0.1122212603793186</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1853522183575471</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9943185267104752</v>
+        <v>1.054846280367186</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.3653819189581597</v>
+        <v>-0.4017020752676045</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.06966085852933006</v>
+        <v>-0.05944344198915099</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.2081362140113296</v>
       </c>
       <c r="E91" t="n">
-        <v>1.175453552916699</v>
+        <v>1.230815656427775</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.1856134977650262</v>
+        <v>-0.2223833488864709</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.04029929142115612</v>
+        <v>-0.03516138218924841</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.2241410187683102</v>
       </c>
       <c r="E92" t="n">
-        <v>1.306354164507119</v>
+        <v>1.349990621800107</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.03707842533261154</v>
+        <v>-0.07351976563360176</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.04094171258115595</v>
+        <v>-0.03635424147952082</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.2337411466347513</v>
       </c>
       <c r="E93" t="n">
-        <v>1.41734994047418</v>
+        <v>1.45249037792617</v>
       </c>
       <c r="F93" t="n">
-        <v>0.122093097442073</v>
+        <v>0.09373604342044424</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.04053143906761061</v>
+        <v>-0.03611625364070271</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.2383094750684612</v>
       </c>
       <c r="E94" t="n">
-        <v>1.437777473314083</v>
+        <v>1.455144745355442</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2570847637832185</v>
+        <v>0.2321223215729525</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.06462369261569505</v>
+        <v>-0.05778920750215143</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.2388009749012224</v>
       </c>
       <c r="E95" t="n">
-        <v>1.484655237368889</v>
+        <v>1.494057947074341</v>
       </c>
       <c r="F95" t="n">
-        <v>0.4174637463290846</v>
+        <v>0.3974683877240899</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.08467307300005331</v>
+        <v>-0.08190774191587223</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.2364654677809427</v>
       </c>
       <c r="E96" t="n">
-        <v>1.43417261457763</v>
+        <v>1.432029263980176</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4580881244105282</v>
+        <v>0.4404157023181693</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1221437472051342</v>
+        <v>-0.1183198812550443</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.2333100468160154</v>
       </c>
       <c r="E97" t="n">
-        <v>1.362409790861376</v>
+        <v>1.360453326419559</v>
       </c>
       <c r="F97" t="n">
-        <v>0.5324483736805082</v>
+        <v>0.5181515827743303</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1594450558316696</v>
+        <v>-0.1533537351963985</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.2286404074371563</v>
       </c>
       <c r="E98" t="n">
-        <v>1.270431141278401</v>
+        <v>1.26903241520731</v>
       </c>
       <c r="F98" t="n">
-        <v>0.5566472107392291</v>
+        <v>0.5429037780595054</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1959608585852962</v>
+        <v>-0.1932261885110242</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.2228522719087406</v>
       </c>
       <c r="E99" t="n">
-        <v>1.216139253017961</v>
+        <v>1.206483954992782</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5759694871743147</v>
+        <v>0.567920242049135</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.2146012925619275</v>
+        <v>-0.2162146457023816</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.211625676164647</v>
       </c>
       <c r="E100" t="n">
-        <v>1.113379608331716</v>
+        <v>1.109195110503172</v>
       </c>
       <c r="F100" t="n">
-        <v>0.547421166852777</v>
+        <v>0.5413108655923241</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.2310443541617413</v>
+        <v>-0.2326839881678317</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.1965375460664006</v>
       </c>
       <c r="E101" t="n">
-        <v>1.029212216035102</v>
+        <v>1.020974624706195</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5311343303986904</v>
+        <v>0.5268476292037825</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.2223103464819254</v>
+        <v>-0.2247106655433793</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.1691176802722733</v>
       </c>
       <c r="E102" t="n">
-        <v>0.95923503113403</v>
+        <v>0.9519464710642138</v>
       </c>
       <c r="F102" t="n">
-        <v>0.4750349026017055</v>
+        <v>0.4675711367609802</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2503038485289179</v>
+        <v>-0.2512061582490995</v>
       </c>
     </row>
   </sheetData>
